--- a/excel/withRepeats.xlsx
+++ b/excel/withRepeats.xlsx
@@ -5,31 +5,30 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="884" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
   <si>
-    <t>Col 1 source 1</t>
+    <t xml:space="preserve">one one one</t>
   </si>
   <si>
-    <t>Col 1 source 2</t>
+    <t xml:space="preserve">two two two</t>
   </si>
   <si>
-    <t>Col 1 source 3</t>
-  </si>
-  <si>
-    <t>Col 1 source 4</t>
-  </si>
-  <si>
-    <t>Col 1 source 5</t>
+    <t xml:space="preserve">three three three</t>
   </si>
 </sst>
 </file>
@@ -37,7 +36,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -129,13 +128,13 @@
   <dimension ref="A1:A65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9132653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -145,32 +144,42 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
